--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18731733333333</v>
+        <v>0.3268493333333333</v>
       </c>
       <c r="N2">
-        <v>69.56195199999999</v>
+        <v>0.980548</v>
       </c>
       <c r="O2">
-        <v>0.8148739324305956</v>
+        <v>0.05842197836270246</v>
       </c>
       <c r="P2">
-        <v>0.8148739324305956</v>
+        <v>0.05842197836270247</v>
       </c>
       <c r="Q2">
-        <v>4725.150125340921</v>
+        <v>27.12446820972933</v>
       </c>
       <c r="R2">
-        <v>42526.35112806829</v>
+        <v>244.120213887564</v>
       </c>
       <c r="S2">
-        <v>0.5433031453686441</v>
+        <v>0.02622857122907955</v>
       </c>
       <c r="T2">
-        <v>0.5433031453686442</v>
+        <v>0.02622857122907955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>15.803341</v>
       </c>
       <c r="O3">
-        <v>0.1851260675694044</v>
+        <v>0.9415780216372975</v>
       </c>
       <c r="P3">
-        <v>0.1851260675694044</v>
+        <v>0.9415780216372976</v>
       </c>
       <c r="Q3">
-        <v>1073.477045424995</v>
+        <v>437.1608738807403</v>
       </c>
       <c r="R3">
-        <v>9661.293408824955</v>
+        <v>3934.447864926663</v>
       </c>
       <c r="S3">
-        <v>0.1234296138301762</v>
+        <v>0.4227218403137157</v>
       </c>
       <c r="T3">
-        <v>0.1234296138301762</v>
+        <v>0.4227218403137157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
         <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.18731733333333</v>
+        <v>0.3268493333333333</v>
       </c>
       <c r="N4">
-        <v>69.56195199999999</v>
+        <v>0.980548</v>
       </c>
       <c r="O4">
-        <v>0.8148739324305956</v>
+        <v>0.05842197836270246</v>
       </c>
       <c r="P4">
-        <v>0.8148739324305956</v>
+        <v>0.05842197836270247</v>
       </c>
       <c r="Q4">
-        <v>1464.060881485682</v>
+        <v>20.63745952987378</v>
       </c>
       <c r="R4">
-        <v>13176.54793337114</v>
+        <v>185.737135768864</v>
       </c>
       <c r="S4">
-        <v>0.1683393883416498</v>
+        <v>0.01995582265728565</v>
       </c>
       <c r="T4">
-        <v>0.1683393883416498</v>
+        <v>0.01995582265728565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>15.803341</v>
       </c>
       <c r="O5">
-        <v>0.1851260675694044</v>
+        <v>0.9415780216372975</v>
       </c>
       <c r="P5">
-        <v>0.1851260675694044</v>
+        <v>0.9415780216372976</v>
       </c>
       <c r="Q5">
         <v>332.6107547252098</v>
@@ -756,10 +756,10 @@
         <v>2993.496792526888</v>
       </c>
       <c r="S5">
-        <v>0.03824396356350836</v>
+        <v>0.3216249182993707</v>
       </c>
       <c r="T5">
-        <v>0.03824396356350836</v>
+        <v>0.3216249182993707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.18731733333333</v>
+        <v>0.3268493333333333</v>
       </c>
       <c r="N6">
-        <v>69.56195199999999</v>
+        <v>0.980548</v>
       </c>
       <c r="O6">
-        <v>0.8148739324305956</v>
+        <v>0.05842197836270246</v>
       </c>
       <c r="P6">
-        <v>0.8148739324305956</v>
+        <v>0.05842197836270247</v>
       </c>
       <c r="Q6">
-        <v>897.811582282261</v>
+        <v>12.65558722940533</v>
       </c>
       <c r="R6">
-        <v>8080.30424054035</v>
+        <v>113.900285064648</v>
       </c>
       <c r="S6">
-        <v>0.1032313987203016</v>
+        <v>0.01223758447633727</v>
       </c>
       <c r="T6">
-        <v>0.1032313987203016</v>
+        <v>0.01223758447633727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>15.803341</v>
       </c>
       <c r="O7">
-        <v>0.1851260675694044</v>
+        <v>0.9415780216372975</v>
       </c>
       <c r="P7">
-        <v>0.1851260675694044</v>
+        <v>0.9415780216372976</v>
       </c>
       <c r="Q7">
-        <v>203.9681489754073</v>
+        <v>203.9681489754074</v>
       </c>
       <c r="R7">
         <v>1835.713340778666</v>
       </c>
       <c r="S7">
-        <v>0.02345249017571977</v>
+        <v>0.1972312630242112</v>
       </c>
       <c r="T7">
-        <v>0.02345249017571977</v>
+        <v>0.1972312630242112</v>
       </c>
     </row>
   </sheetData>
